--- a/AfDD_2024_Annex_Table_Tab07.xlsx
+++ b/AfDD_2024_Annex_Table_Tab07.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A28D1359-354D-4447-9031-D120D593018A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5EFD9B0-3072-450B-9A62-BE034AECA426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{31E91D24-0A2F-4FDA-B265-5BE78BB72AF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F743D36C-1DEC-4497-8321-29E1E4F7D248}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
@@ -1532,7 +1532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F21A000-C27F-470D-B737-BB1138DBEB3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6CE9B3-DB05-43DB-9995-44D2A7D0F890}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3983,13 +3983,13 @@
         <v>65.576999999999998</v>
       </c>
       <c r="F50" s="25">
-        <v>79.5</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="G50" s="26">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="H50" s="26">
-        <v>72.599999999999994</v>
+        <v>76</v>
       </c>
       <c r="I50" s="27">
         <v>73.4372560303716</v>
@@ -4533,13 +4533,13 @@
         <v>68.897696428977994</v>
       </c>
       <c r="F61" s="36">
-        <v>87.5</v>
+        <v>87.65</v>
       </c>
       <c r="G61" s="37">
-        <v>90.978571428571399</v>
+        <v>90.985714285714295</v>
       </c>
       <c r="H61" s="52">
-        <v>84.621428571428595</v>
+        <v>84.8642857142857</v>
       </c>
       <c r="I61" s="39">
         <v>80.844311743728099</v>
@@ -4583,13 +4583,13 @@
         <v>72.443718547354607</v>
       </c>
       <c r="F62" s="60">
-        <v>81.846341463414703</v>
+        <v>81.897560975609807</v>
       </c>
       <c r="G62" s="61">
-        <v>83.919512195121996</v>
+        <v>83.921951219512195</v>
       </c>
       <c r="H62" s="61">
-        <v>79.831707317073196</v>
+        <v>79.914634146341498</v>
       </c>
       <c r="I62" s="62">
         <v>69.919145271193898</v>
@@ -4633,13 +4633,13 @@
         <v>73.354158655776402</v>
       </c>
       <c r="F63" s="65">
-        <v>40.772093023255799</v>
+        <v>40.762790697674397</v>
       </c>
       <c r="G63" s="66">
-        <v>40.3244186046512</v>
+        <v>40.327906976744202</v>
       </c>
       <c r="H63" s="61">
-        <v>41.033720930232498</v>
+        <v>41.0162790697674</v>
       </c>
       <c r="I63" s="67">
         <v>40.530964691885202</v>
@@ -4683,13 +4683,13 @@
         <v>74.832169063788101</v>
       </c>
       <c r="F64" s="71">
-        <v>56.395454545454498</v>
+        <v>56.359090909090902</v>
       </c>
       <c r="G64" s="72">
-        <v>54.718181818181797</v>
+        <v>54.731818181818198</v>
       </c>
       <c r="H64" s="66">
-        <v>57.640909090909098</v>
+        <v>57.572727272727299</v>
       </c>
       <c r="I64" s="73">
         <v>32.931468537579697</v>
@@ -4783,13 +4783,13 @@
         <v>73.222809079503307</v>
       </c>
       <c r="F66" s="79">
-        <v>54.032283464566902</v>
+        <v>54.042519685039402</v>
       </c>
       <c r="G66" s="80">
-        <v>54.398425196850397</v>
+        <v>54.4015748031496</v>
       </c>
       <c r="H66" s="80">
-        <v>53.559055118110201</v>
+        <v>53.574015748031499</v>
       </c>
       <c r="I66" s="81">
         <v>44.873564232397797</v>
@@ -4883,13 +4883,13 @@
         <v>68.7404744838271</v>
       </c>
       <c r="F68" s="75">
-        <v>83.834999999999994</v>
+        <v>83.94</v>
       </c>
       <c r="G68" s="76">
-        <v>86.094999999999999</v>
+        <v>86.1</v>
       </c>
       <c r="H68" s="76">
-        <v>81.745000000000005</v>
+        <v>81.915000000000006</v>
       </c>
       <c r="I68" s="67">
         <v>67.858544409530197</v>
@@ -5033,13 +5033,13 @@
         <v>68.897696428977895</v>
       </c>
       <c r="F71" s="75">
-        <v>87.5</v>
+        <v>87.65</v>
       </c>
       <c r="G71" s="76">
-        <v>90.978571428571399</v>
+        <v>90.985714285714295</v>
       </c>
       <c r="H71" s="76">
-        <v>84.621428571428595</v>
+        <v>84.8642857142857</v>
       </c>
       <c r="I71" s="67">
         <v>80.844311743727999</v>
@@ -5583,13 +5583,13 @@
         <v>72.7281883657067</v>
       </c>
       <c r="F82" s="75">
-        <v>81.494594594594602</v>
+        <v>81.5513513513514</v>
       </c>
       <c r="G82" s="76">
-        <v>83.529729729729794</v>
+        <v>83.5324324324325</v>
       </c>
       <c r="H82" s="76">
-        <v>79.491891891891896</v>
+        <v>79.583783783783801</v>
       </c>
       <c r="I82" s="67">
         <v>71.143652653229296</v>
@@ -5633,13 +5633,13 @@
         <v>73.471533217163994</v>
       </c>
       <c r="F83" s="65">
-        <v>38.802564102564098</v>
+        <v>38.792307692307702</v>
       </c>
       <c r="G83" s="66">
-        <v>38.725641025641004</v>
+        <v>38.729487179487201</v>
       </c>
       <c r="H83" s="80">
-        <v>38.919230769230801</v>
+        <v>38.9</v>
       </c>
       <c r="I83" s="67">
         <v>41.949954436466399</v>
@@ -5683,13 +5683,13 @@
         <v>75.981515869987405</v>
       </c>
       <c r="F84" s="84">
-        <v>90.966666666666697</v>
+        <v>91.0833333333333</v>
       </c>
       <c r="G84" s="85">
-        <v>93.933333333333394</v>
+        <v>93.938888888888897</v>
       </c>
       <c r="H84" s="76">
-        <v>88.4166666666667</v>
+        <v>88.605555555555597</v>
       </c>
       <c r="I84" s="86">
         <v>80.595944677648504</v>
@@ -5983,13 +5983,13 @@
         <v>68.272221131503898</v>
       </c>
       <c r="F90" s="79">
-        <v>14.0648648648649</v>
+        <v>14.0432432432432</v>
       </c>
       <c r="G90" s="80">
-        <v>13.3918918918919</v>
+        <v>13.4</v>
       </c>
       <c r="H90" s="80">
-        <v>14.5648648648649</v>
+        <v>14.524324324324301</v>
       </c>
       <c r="I90" s="81">
         <v>8.9842924797394303</v>
@@ -6033,13 +6033,13 @@
         <v>75.854886320898601</v>
       </c>
       <c r="F91" s="75">
-        <v>88.962962962963005</v>
+        <v>89.040740740740802</v>
       </c>
       <c r="G91" s="76">
-        <v>92.244444444444497</v>
+        <v>92.248148148148204</v>
       </c>
       <c r="H91" s="76">
-        <v>86.425925925925895</v>
+        <v>86.551851851851893</v>
       </c>
       <c r="I91" s="67">
         <v>79.140438779626507</v>
@@ -6333,13 +6333,13 @@
         <v>74.937033192174695</v>
       </c>
       <c r="F97" s="84">
-        <v>86.888461538461598</v>
+        <v>86.969230769230805</v>
       </c>
       <c r="G97" s="85">
-        <v>90.834615384615404</v>
+        <v>90.838461538461601</v>
       </c>
       <c r="H97" s="76">
-        <v>83.742307692307705</v>
+        <v>83.873076923076894</v>
       </c>
       <c r="I97" s="86">
         <v>78.752550475185203</v>
@@ -6710,13 +6710,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7A29D6EB-911C-4DA7-8BE0-D97DFC757B07}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7EFF2A5A-6F54-449C-A4E4-EFFDA93751BE}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{DC5A1185-4C74-4B9B-816D-0A30ECF570DB}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{BDAE8610-B4B9-4CD9-B1C1-784FF72F7EEC}"/>
-    <hyperlink ref="B105" r:id="rId5" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{A9341BDE-EF82-46B6-97DE-A4A67767C588}"/>
-    <hyperlink ref="B107" r:id="rId6" xr:uid="{4B268FDF-7DD2-45B4-8DF0-8588E077C10C}"/>
-    <hyperlink ref="B111" r:id="rId7" xr:uid="{0462A355-4133-4E9F-84EC-EE856DBE0927}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E478D37C-C4B0-4F68-A0B6-FD2B3C8BC388}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{5DF65D01-802F-4A9C-8231-39BA38077FB4}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{709766E3-D093-4BA6-B060-9920675F586C}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{53421447-B797-4295-A288-D758DCD969F1}"/>
+    <hyperlink ref="B105" r:id="rId5" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{92E6EA70-A51B-42AB-A22D-7CC1D09C872B}"/>
+    <hyperlink ref="B107" r:id="rId6" xr:uid="{2BDCB680-E796-4C42-8BA3-3D5BE3F55875}"/>
+    <hyperlink ref="B111" r:id="rId7" xr:uid="{E45E7A2A-F29A-49A5-8F49-269F4C4ECEE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId8"/>

--- a/AfDD_2024_Annex_Table_Tab07.xlsx
+++ b/AfDD_2024_Annex_Table_Tab07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5EFD9B0-3072-450B-9A62-BE034AECA426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AAA6AB2-CAA5-4D59-9978-EC1E5C252BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F743D36C-1DEC-4497-8321-29E1E4F7D248}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{B7FFA819-BF87-4B2C-AA88-1E70D95CF2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
@@ -1215,8 +1215,8 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1532,7 +1532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6CE9B3-DB05-43DB-9995-44D2A7D0F890}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905530D7-F8F0-4EE5-B429-0994877A9796}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1544,7 +1544,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="12.42578125" style="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="12.42578125" style="97" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6637,7 +6637,7 @@
       <c r="P110" s="93"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B111" s="97" t="s">
+      <c r="B111" s="96" t="s">
         <v>178</v>
       </c>
       <c r="C111" s="93"/>
@@ -6656,7 +6656,7 @@
       <c r="P111" s="93"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="96" t="s">
         <v>175</v>
       </c>
       <c r="C112" s="93"/>
@@ -6710,13 +6710,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E478D37C-C4B0-4F68-A0B6-FD2B3C8BC388}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{5DF65D01-802F-4A9C-8231-39BA38077FB4}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{709766E3-D093-4BA6-B060-9920675F586C}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{53421447-B797-4295-A288-D758DCD969F1}"/>
-    <hyperlink ref="B105" r:id="rId5" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{92E6EA70-A51B-42AB-A22D-7CC1D09C872B}"/>
-    <hyperlink ref="B107" r:id="rId6" xr:uid="{2BDCB680-E796-4C42-8BA3-3D5BE3F55875}"/>
-    <hyperlink ref="B111" r:id="rId7" xr:uid="{E45E7A2A-F29A-49A5-8F49-269F4C4ECEE5}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{CB9232A8-49E7-4566-8929-60CAD3512C3F}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{E0BA098D-4707-4D89-9F59-9BCCEA66B0CD}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{726355D0-C179-4088-9CA0-1488B0E79CC1}"/>
+    <hyperlink ref="B105" r:id="rId4" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{3D2D86E8-A35E-4BC6-B9CE-28461B6096C7}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{6D281D1A-F9DD-4CDD-BAC1-8BE6BB001FC5}"/>
+    <hyperlink ref="B112" r:id="rId6" xr:uid="{E388BE60-A9E6-4249-BF8D-DA34BB037DE0}"/>
+    <hyperlink ref="B111" r:id="rId7" xr:uid="{A67F5703-A07C-42BD-B41F-0A456B4A28E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId8"/>

--- a/AfDD_2024_Annex_Table_Tab07.xlsx
+++ b/AfDD_2024_Annex_Table_Tab07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AAA6AB2-CAA5-4D59-9978-EC1E5C252BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30E425C6-8AF1-47AC-BAA7-B0E246F8534E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{B7FFA819-BF87-4B2C-AA88-1E70D95CF2B7}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{A9124ED5-7F55-4DAE-AA94-4997D07DC07C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
@@ -1532,7 +1532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905530D7-F8F0-4EE5-B429-0994877A9796}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63CBE25-D779-4AD2-9545-8E2F3EB3C297}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6710,13 +6710,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{CB9232A8-49E7-4566-8929-60CAD3512C3F}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{E0BA098D-4707-4D89-9F59-9BCCEA66B0CD}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{726355D0-C179-4088-9CA0-1488B0E79CC1}"/>
-    <hyperlink ref="B105" r:id="rId4" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{3D2D86E8-A35E-4BC6-B9CE-28461B6096C7}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{6D281D1A-F9DD-4CDD-BAC1-8BE6BB001FC5}"/>
-    <hyperlink ref="B112" r:id="rId6" xr:uid="{E388BE60-A9E6-4249-BF8D-DA34BB037DE0}"/>
-    <hyperlink ref="B111" r:id="rId7" xr:uid="{A67F5703-A07C-42BD-B41F-0A456B4A28E7}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{B820B9D8-BE33-435F-BD8F-3E897D566867}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F83EF547-7B79-4AB1-8D5C-4FFE86639A2C}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{99B972B4-6679-4BBF-85E7-D43BF75F80A9}"/>
+    <hyperlink ref="B105" r:id="rId4" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{D4BE5112-FA89-47FF-8346-7BE13386B807}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{4A61A1BE-9F14-4235-A6E7-1810118FBB26}"/>
+    <hyperlink ref="B112" r:id="rId6" xr:uid="{674E0BF7-B713-456E-A07C-5A39D7168499}"/>
+    <hyperlink ref="B111" r:id="rId7" xr:uid="{3F72725C-C204-42A2-AD54-6D7C08236367}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId8"/>
